--- a/biology/Médecine/Brian_Weiss/Brian_Weiss.xlsx
+++ b/biology/Médecine/Brian_Weiss/Brian_Weiss.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Brian Weiss est un psychiatre américain. Ses recherches portent sur la réincarnation, les vies antérieures et la survie de l'âme après la mort. Il est régulièrement l'invité d'émissions telles que The Oprah Winfrey Show.
 </t>
